--- a/docs/users.xlsx
+++ b/docs/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>record</t>
   </si>
@@ -34,7 +34,7 @@
     <t>vehicule</t>
   </si>
   <si>
-    <t>seniority</t>
+    <t>since</t>
   </si>
   <si>
     <t>pepe</t>
@@ -52,7 +52,7 @@
     <t>false</t>
   </si>
   <si>
-    <t>2017-05-01</t>
+    <t>2020</t>
   </si>
   <si>
     <t>natalia</t>
@@ -70,7 +70,7 @@
     <t>true</t>
   </si>
   <si>
-    <t>2020-12-01</t>
+    <t>2021</t>
   </si>
   <si>
     <t>john</t>
@@ -85,7 +85,7 @@
     <t>london</t>
   </si>
   <si>
-    <t>2018-09-01</t>
+    <t>2022</t>
   </si>
   <si>
     <t>rakesh</t>
@@ -100,9 +100,6 @@
     <t>paris</t>
   </si>
   <si>
-    <t>2022-02-01</t>
-  </si>
-  <si>
     <t>luis</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>alicante</t>
   </si>
   <si>
-    <t>2021-11-01</t>
-  </si>
-  <si>
     <t>alejandra</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>lisbon</t>
   </si>
   <si>
-    <t>2022-03-01</t>
-  </si>
-  <si>
     <t>anthony</t>
   </si>
   <si>
@@ -139,22 +130,46 @@
     <t>santo domingo</t>
   </si>
   <si>
-    <t>2019-11-01</t>
-  </si>
-  <si>
-    <t>samuel</t>
-  </si>
-  <si>
-    <t>sam@me.com</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>barcelona</t>
-  </si>
-  <si>
-    <t>2022-07-07</t>
+    <t>esther</t>
+  </si>
+  <si>
+    <t>esther@me.com</t>
+  </si>
+  <si>
+    <t>rosa</t>
+  </si>
+  <si>
+    <t>rosa@me.com</t>
+  </si>
+  <si>
+    <t>sandra</t>
+  </si>
+  <si>
+    <t>sandra@me.com</t>
+  </si>
+  <si>
+    <t>loic</t>
+  </si>
+  <si>
+    <t>loic@me.com</t>
+  </si>
+  <si>
+    <t>ernesto</t>
+  </si>
+  <si>
+    <t>ernesto@me.com</t>
+  </si>
+  <si>
+    <t>silvia</t>
+  </si>
+  <si>
+    <t>silvia@me.com</t>
+  </si>
+  <si>
+    <t>laura</t>
+  </si>
+  <si>
+    <t>laura@me.com</t>
   </si>
 </sst>
 </file>
@@ -495,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,87 +616,207 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
         <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
